--- a/TIMES-DE/SuppXLS/Scen_IND_NOEL_Maxshare_constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IND_NOEL_Maxshare_constraint.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>UC - All Regions/Each Period</t>
   </si>
@@ -48,21 +48,6 @@
     <t>Cset_CN</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>UC_FLO</t>
-  </si>
-  <si>
-    <t>UC_RHSTS</t>
-  </si>
-  <si>
-    <t>UC_RHSTS~0</t>
-  </si>
-  <si>
     <t>UC_Desc</t>
   </si>
   <si>
@@ -102,9 +87,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>Chemical</t>
   </si>
   <si>
@@ -153,14 +135,26 @@
     <t>N</t>
   </si>
   <si>
-    <t>DE1</t>
+    <t>UC_FLO~2020</t>
+  </si>
+  <si>
+    <t>UC_FLO~2060</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~UP~2020</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~UP~0</t>
+  </si>
+  <si>
+    <t>IND*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,11 +177,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -238,9 +227,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,35 +532,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -590,886 +587,948 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>"UC_IND_ELC_"&amp;L6</f>
+        <v>UC_IND_ELC_Iron&amp;Steel</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"IND"&amp;N6&amp;"DPH*"</f>
+        <v>INDSDPH*</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="str">
+        <f>G6</f>
+        <v>ISDPH</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"I"&amp;N6&amp;"DPH"</f>
+        <v>ISDPH</v>
+      </c>
+      <c r="H6">
+        <v>-0.1</v>
+      </c>
+      <c r="I6">
+        <v>-0.3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
-        <f>"UC_IND_ELC_"&amp;N6</f>
-        <v>UC_IND_ELC_Iron&amp;Steel</v>
-      </c>
-      <c r="D6" t="str">
-        <f>"IND"&amp;P6&amp;"DPH*"</f>
-        <v>INDSDPH*</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="str">
-        <f>"I"&amp;P6&amp;"DPH"</f>
-        <v>ISDPH</v>
-      </c>
-      <c r="H6">
-        <v>2020</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0.1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" t="str">
         <f>D6</f>
         <v>INDSDPH*</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F31" si="0">G7</f>
+        <v>ISDPH</v>
       </c>
       <c r="G7" t="str">
         <f>G6</f>
         <v>ISDPH</v>
       </c>
       <c r="H7">
-        <v>2060</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f>1+H6</f>
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <f>1+I6</f>
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
-        <f>"UC_IND_ELC_"&amp;N8</f>
+        <f>"UC_IND_ELC_"&amp;L8</f>
         <v>UC_IND_ELC_Chemical</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" t="str">
-        <f>"IND"&amp;P8&amp;"DPH*"</f>
+        <f>"IND"&amp;N8&amp;"DPH*"</f>
         <v>INDCDPH*</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>ICDPH</v>
       </c>
       <c r="G8" t="str">
-        <f>"I"&amp;P8&amp;"DPH"</f>
+        <f>"I"&amp;N8&amp;"DPH"</f>
         <v>ICDPH</v>
       </c>
       <c r="H8">
-        <v>2020</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I8">
+        <v>-0.3</v>
       </c>
       <c r="J8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.16</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
         <v>15</v>
       </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
       <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" t="str">
         <f>D8</f>
         <v>INDCDPH*</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>ICDPH</v>
       </c>
       <c r="G9" t="str">
         <f>G8</f>
         <v>ICDPH</v>
       </c>
       <c r="H9">
-        <v>2060</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f>1+H8</f>
+        <v>0.84</v>
+      </c>
+      <c r="I9">
+        <f>1+I8</f>
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
-        <f>"UC_IND_ELC_"&amp;N10</f>
+        <f>"UC_IND_ELC_"&amp;L10</f>
         <v>UC_IND_ELC_Aluminium</v>
       </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" t="str">
-        <f>"IND"&amp;P10&amp;"DPH*"</f>
+        <f>"IND"&amp;N10&amp;"DPH*"</f>
         <v>INDADPH*</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>IADPH</v>
       </c>
       <c r="G10" t="str">
-        <f>"I"&amp;P10&amp;"DPH"</f>
+        <f>"I"&amp;N10&amp;"DPH"</f>
         <v>IADPH</v>
       </c>
       <c r="H10">
-        <v>2020</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I10">
+        <v>-0.6</v>
       </c>
       <c r="J10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
         <v>15</v>
       </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
       <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" t="str">
         <f>D10</f>
         <v>INDADPH*</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>IADPH</v>
       </c>
       <c r="G11" t="str">
         <f>G10</f>
         <v>IADPH</v>
       </c>
       <c r="H11">
-        <v>2060</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f>1+H10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <f>1+I10</f>
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
-        <f>"UC_IND_ELC_"&amp;N12</f>
+        <f>"UC_IND_ELC_"&amp;L12</f>
         <v>UC_IND_ELC_Glass&amp;Concrete</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" t="str">
-        <f>"IND"&amp;P12&amp;"DPH*"</f>
+        <f>"IND"&amp;N12&amp;"DPH*"</f>
         <v>INDGDPH*</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>IGDPH</v>
       </c>
       <c r="G12" t="str">
-        <f>"I"&amp;P12&amp;"DPH"</f>
+        <f>"I"&amp;N12&amp;"DPH"</f>
         <v>IGDPH</v>
       </c>
       <c r="H12">
-        <v>2020</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I12">
+        <v>-0.3</v>
       </c>
       <c r="J12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.16</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
         <v>15</v>
       </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" t="str">
         <f>D12</f>
         <v>INDGDPH*</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>IGDPH</v>
       </c>
       <c r="G13" t="str">
         <f>G12</f>
         <v>IGDPH</v>
       </c>
       <c r="H13">
-        <v>2060</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f>1+H12</f>
+        <v>0.84</v>
+      </c>
+      <c r="I13">
+        <f>1+I12</f>
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
-        <f>"UC_IND_ELC_"&amp;N14</f>
+        <f>"UC_IND_ELC_"&amp;L14</f>
         <v>UC_IND_ELC_Transport</v>
       </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" t="str">
-        <f>"IND"&amp;P14&amp;"DPH*"</f>
+        <f>"IND"&amp;N14&amp;"DPH*"</f>
         <v>INDTDPH*</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>ITDPH</v>
       </c>
       <c r="G14" t="str">
-        <f>"I"&amp;P14&amp;"DPH"</f>
+        <f>"I"&amp;N14&amp;"DPH"</f>
         <v>ITDPH</v>
       </c>
       <c r="H14">
-        <v>2020</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I14">
+        <v>-0.3</v>
       </c>
       <c r="J14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.16</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
         <v>15</v>
       </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
       <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" t="str">
         <f>D14</f>
         <v>INDTDPH*</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>ITDPH</v>
       </c>
       <c r="G15" t="str">
         <f>G14</f>
         <v>ITDPH</v>
       </c>
       <c r="H15">
-        <v>2060</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f>1+H14</f>
+        <v>0.84</v>
+      </c>
+      <c r="I15">
+        <f>1+I14</f>
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
-        <f>"UC_IND_ELC_"&amp;N16</f>
+        <f>"UC_IND_ELC_"&amp;L16</f>
         <v>UC_IND_ELC_Machinery</v>
       </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" t="str">
-        <f>"IND"&amp;P16&amp;"DPH*"</f>
+        <f>"IND"&amp;N16&amp;"DPH*"</f>
         <v>INDMDPH*</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>IMDPH</v>
       </c>
       <c r="G16" t="str">
-        <f>"I"&amp;P16&amp;"DPH"</f>
+        <f>"I"&amp;N16&amp;"DPH"</f>
         <v>IMDPH</v>
       </c>
       <c r="H16">
-        <v>2020</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I16">
+        <v>-0.3</v>
       </c>
       <c r="J16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.16</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
         <v>15</v>
       </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
       <c r="N16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" t="str">
         <f>D16</f>
         <v>INDMDPH*</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>IMDPH</v>
       </c>
       <c r="G17" t="str">
         <f>G16</f>
         <v>IMDPH</v>
       </c>
       <c r="H17">
-        <v>2060</v>
-      </c>
-      <c r="I17" t="s">
+        <f>1+H16</f>
+        <v>0.84</v>
+      </c>
+      <c r="I17">
+        <f>1+I16</f>
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f>"UC_IND_ELC_"&amp;L18</f>
+        <v>UC_IND_ELC_Mining</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"IND"&amp;N18&amp;"DPH*"</f>
+        <v>INDIDPH*</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>IIDPH</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"I"&amp;N18&amp;"DPH"</f>
+        <v>IIDPH</v>
+      </c>
+      <c r="H18">
+        <v>-0.16</v>
+      </c>
+      <c r="I18">
+        <v>-0.3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f>"UC_IND_ELC_"&amp;N18</f>
-        <v>UC_IND_ELC_Mining</v>
-      </c>
-      <c r="D18" t="str">
-        <f>"IND"&amp;P18&amp;"DPH*"</f>
-        <v>INDIDPH*</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="str">
-        <f>"I"&amp;P18&amp;"DPH"</f>
-        <v>IIDPH</v>
-      </c>
-      <c r="H18">
-        <v>2020</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.16</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
       <c r="N18" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" t="str">
         <f>D18</f>
         <v>INDIDPH*</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>IIDPH</v>
       </c>
       <c r="G19" t="str">
         <f>G18</f>
         <v>IIDPH</v>
       </c>
       <c r="H19">
-        <v>2060</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+        <f>1+H18</f>
+        <v>0.84</v>
+      </c>
+      <c r="I19">
+        <f>1+I18</f>
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
-        <f>"UC_IND_ELC_"&amp;N20</f>
+        <f>"UC_IND_ELC_"&amp;L20</f>
         <v>UC_IND_ELC_Food</v>
       </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" t="str">
-        <f>"IND"&amp;P20&amp;"DPH*"</f>
+        <f>"IND"&amp;N20&amp;"DPH*"</f>
         <v>INDFDPH*</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>IFDPH</v>
       </c>
       <c r="G20" t="str">
-        <f>"I"&amp;P20&amp;"DPH"</f>
+        <f>"I"&amp;N20&amp;"DPH"</f>
         <v>IFDPH</v>
       </c>
       <c r="H20">
-        <v>2020</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I20">
+        <v>-0.3</v>
       </c>
       <c r="J20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.16</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
         <v>15</v>
       </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
       <c r="N20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" t="str">
         <f>D20</f>
         <v>INDFDPH*</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>IFDPH</v>
       </c>
       <c r="G21" t="str">
         <f>G20</f>
         <v>IFDPH</v>
       </c>
       <c r="H21">
-        <v>2060</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+        <f>1+H20</f>
+        <v>0.84</v>
+      </c>
+      <c r="I21">
+        <f>1+I20</f>
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
-        <f>"UC_IND_ELC_"&amp;N22</f>
+        <f>"UC_IND_ELC_"&amp;L22</f>
         <v>UC_IND_ELC_Paper&amp;Pulp</v>
       </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" t="str">
-        <f>"IND"&amp;P22&amp;"DPH*"</f>
+        <f>"IND"&amp;N22&amp;"DPH*"</f>
         <v>INDRDPH*</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>IRDPH</v>
       </c>
       <c r="G22" t="str">
-        <f>"I"&amp;P22&amp;"DPH"</f>
+        <f>"I"&amp;N22&amp;"DPH"</f>
         <v>IRDPH</v>
       </c>
       <c r="H22">
-        <v>2020</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I22">
+        <v>-0.3</v>
       </c>
       <c r="J22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.16</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
         <v>15</v>
       </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
       <c r="N22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" t="str">
         <f>D22</f>
         <v>INDRDPH*</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>IRDPH</v>
       </c>
       <c r="G23" t="str">
         <f>G22</f>
         <v>IRDPH</v>
       </c>
       <c r="H23">
-        <v>2060</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+        <f>1+H22</f>
+        <v>0.84</v>
+      </c>
+      <c r="I23">
+        <f>1+I22</f>
+        <v>0.7</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <f>"UC_IND_ELC_"&amp;N24</f>
+        <f>"UC_IND_ELC_"&amp;L24</f>
         <v>UC_IND_ELC_Wood</v>
       </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" t="str">
-        <f>"IND"&amp;P24&amp;"DPH*"</f>
+        <f>"IND"&amp;N24&amp;"DPH*"</f>
         <v>INDWDPH*</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>IWDPH</v>
       </c>
       <c r="G24" t="str">
-        <f>"I"&amp;P24&amp;"DPH"</f>
+        <f>"I"&amp;N24&amp;"DPH"</f>
         <v>IWDPH</v>
       </c>
       <c r="H24">
-        <v>2020</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I24">
+        <v>-0.3</v>
       </c>
       <c r="J24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.16</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
         <v>15</v>
       </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
       <c r="N24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" t="str">
         <f>D24</f>
         <v>INDWDPH*</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>IWDPH</v>
       </c>
       <c r="G25" t="str">
         <f>G24</f>
         <v>IWDPH</v>
       </c>
       <c r="H25">
-        <v>2060</v>
-      </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+        <f>1+H24</f>
+        <v>0.84</v>
+      </c>
+      <c r="I25">
+        <f>1+I24</f>
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
-        <f>"UC_IND_ELC_"&amp;N26</f>
+        <f>"UC_IND_ELC_"&amp;L26</f>
         <v>UC_IND_ELC_Textile</v>
       </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" t="str">
-        <f>"IND"&amp;P26&amp;"DPH*"</f>
+        <f>"IND"&amp;N26&amp;"DPH*"</f>
         <v>INDLDPH*</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>ILDPH</v>
       </c>
       <c r="G26" t="str">
-        <f>"I"&amp;P26&amp;"DPH"</f>
+        <f>"I"&amp;N26&amp;"DPH"</f>
         <v>ILDPH</v>
       </c>
       <c r="H26">
-        <v>2020</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
+        <v>-0.13</v>
+      </c>
+      <c r="I26">
+        <v>-0.2</v>
       </c>
       <c r="J26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.13</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
         <v>15</v>
       </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
       <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
       <c r="D27" t="str">
         <f>D26</f>
         <v>INDLDPH*</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>ILDPH</v>
       </c>
       <c r="G27" t="str">
         <f>G26</f>
         <v>ILDPH</v>
       </c>
       <c r="H27">
-        <v>2060</v>
-      </c>
-      <c r="I27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+        <f>1+H26</f>
+        <v>0.87</v>
+      </c>
+      <c r="I27">
+        <f>1+I26</f>
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
-        <f>"UC_IND_ELC_"&amp;N28</f>
+        <f>"UC_IND_ELC_"&amp;L28</f>
         <v>UC_IND_ELC_Construction</v>
       </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
       <c r="D28" t="str">
-        <f>"IND"&amp;P28&amp;"DPH*"</f>
+        <f>"IND"&amp;N28&amp;"DPH*"</f>
         <v>INDNDPH*</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>INDPH</v>
       </c>
       <c r="G28" t="str">
-        <f>"I"&amp;P28&amp;"DPH"</f>
+        <f>"I"&amp;N28&amp;"DPH"</f>
         <v>INDPH</v>
       </c>
       <c r="H28">
-        <v>2020</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
+        <v>-0.16</v>
+      </c>
+      <c r="I28">
+        <v>-0.3</v>
       </c>
       <c r="J28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.16</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
         <v>15</v>
       </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
       <c r="N28" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
       <c r="D29" t="str">
         <f>D28</f>
         <v>INDNDPH*</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>INDPH</v>
       </c>
       <c r="G29" t="str">
         <f>G28</f>
         <v>INDPH</v>
       </c>
       <c r="H29">
-        <v>2060</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+        <f>1+H28</f>
+        <v>0.84</v>
+      </c>
+      <c r="I29">
+        <f>1+I28</f>
+        <v>0.7</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
-        <f>"UC_IND_ELC_"&amp;N30</f>
+        <f>"UC_IND_ELC_"&amp;L30</f>
         <v>UC_IND_ELC_Other</v>
       </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" t="str">
-        <f>"IND"&amp;P30&amp;"DPH*"</f>
+        <f>"IND"&amp;N30&amp;"DPH*"</f>
         <v>INDODPH*</v>
       </c>
       <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>IODPH</v>
+      </c>
+      <c r="G30" t="str">
+        <f>"I"&amp;N30&amp;"DPH"</f>
+        <v>IODPH</v>
+      </c>
+      <c r="H30">
+        <v>-0.16</v>
+      </c>
+      <c r="I30">
+        <v>-0.3</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
         <v>19</v>
       </c>
-      <c r="G30" t="str">
-        <f>"I"&amp;P30&amp;"DPH"</f>
-        <v>IODPH</v>
-      </c>
-      <c r="H30">
-        <v>2020</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.15</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
       <c r="N30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
       <c r="D31" t="str">
         <f>D30</f>
         <v>INDODPH*</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>IODPH</v>
       </c>
       <c r="G31" t="str">
         <f>G30</f>
         <v>IODPH</v>
       </c>
       <c r="H31">
-        <v>2060</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0.3</v>
-      </c>
+        <f>1+H30</f>
+        <v>0.84</v>
+      </c>
+      <c r="I31">
+        <f>1+I30</f>
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMES-DE/SuppXLS/Scen_IND_NOEL_Maxshare_constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_IND_NOEL_Maxshare_constraint.xlsx
@@ -138,9 +138,6 @@
     <t>UC_FLO~2020</t>
   </si>
   <si>
-    <t>UC_FLO~2060</t>
-  </si>
-  <si>
     <t>UC_RHSRTS~UP~2020</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>IND*</t>
+  </si>
+  <si>
+    <t>UC_FLO~2050</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,13 +591,13 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>10</v>
@@ -620,7 +620,7 @@
         <v>INDSDPH*</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="str">
         <f>G6</f>
@@ -691,7 +691,7 @@
         <v>INDCDPH*</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -762,7 +762,7 @@
         <v>INDADPH*</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -833,7 +833,7 @@
         <v>INDGDPH*</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -904,7 +904,7 @@
         <v>INDTDPH*</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -975,7 +975,7 @@
         <v>INDMDPH*</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -1046,7 +1046,7 @@
         <v>INDIDPH*</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -1117,7 +1117,7 @@
         <v>INDFDPH*</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1188,7 +1188,7 @@
         <v>INDRDPH*</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -1259,7 +1259,7 @@
         <v>INDWDPH*</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1330,7 @@
         <v>INDLDPH*</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -1401,7 +1401,7 @@
         <v>INDNDPH*</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -1472,7 +1472,7 @@
         <v>INDODPH*</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
